--- a/temp/hl7.fhir.cl.clcore#1.8.2/temp/pages/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/temp/hl7.fhir.cl.clcore#1.8.2/temp/pages/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:49:09-04:00</t>
+    <t>2023-09-01T22:36:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
